--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/word_level_predictions_123.xlsx
@@ -1750,364 +1750,364 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5338,156 +5338,156 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="D95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="D96" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>12</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>12</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>12</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>3</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>12</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>4</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>12</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>12</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>6</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9446,676 +9446,676 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,265 +11885,265 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>19</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>11</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>19</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>12</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>19</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>13</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>19</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>14</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>19</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>15</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G235" s="2" t="b">
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12665,267 +12665,267 @@
       </c>
       <c r="L235" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/word_level_predictions_123.xlsx
@@ -1750,364 +1750,364 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5338,156 +5338,156 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>10</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Loading</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>10</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
         <v>10</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" t="n">
         <v>2</v>
       </c>
-      <c r="E97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G98" t="b">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>Initiating</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>5</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>6</v>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>12</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Initiating</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>12</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>8</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>12</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>9</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>12</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>10</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>12</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>11</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>12</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>12</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>12</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>trigger</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>13</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>12</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>14</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>12</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>15</v>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9446,676 +9446,676 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,265 +11885,265 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12641,291 +12641,291 @@
       </c>
       <c r="F235" s="2" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
